--- a/11_iOSApp開発/001_ニートいじり/01_設計書/アイコン作成依頼一覧.xlsx
+++ b/11_iOSApp開発/001_ニートいじり/01_設計書/アイコン作成依頼一覧.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="54">
   <si>
     <t>種類</t>
     <rPh sb="0" eb="2">
@@ -202,19 +202,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>活性1,非活性1</t>
-    <rPh sb="0" eb="2">
-      <t>カッセイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カッセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>デフォルト</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -262,6 +249,119 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おかんからの通知</t>
+    <rPh sb="6" eb="8">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>活性×1,非活性×1</t>
+    <rPh sb="0" eb="2">
+      <t>カッセイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>済</t>
+    <rPh sb="0" eb="1">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクター吹き出し</t>
+    <rPh sb="6" eb="7">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>07</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>08</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>09</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今は作成しなくていいです。</t>
+    <rPh sb="0" eb="1">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -287,7 +387,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,8 +400,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -324,13 +430,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -338,6 +455,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -360,13 +507,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -406,7 +553,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>命名は大項目</a:t>
+            <a:t>ファイル名は大項目</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -442,7 +589,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>1_1_1.png</a:t>
+            <a:t>01_01_01.png</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -743,29 +890,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9" style="8"/>
+    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>20</v>
@@ -773,13 +922,16 @@
       <c r="F1" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
+      <c r="G1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -791,13 +943,16 @@
         <v>1</v>
       </c>
       <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
+      <c r="G2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -807,13 +962,16 @@
         <v>1</v>
       </c>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3</v>
+      <c r="G3" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
@@ -823,15 +981,18 @@
         <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4</v>
+        <v>35</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
@@ -841,15 +1002,18 @@
         <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5</v>
+        <v>35</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
@@ -859,15 +1023,18 @@
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1">
-        <v>6</v>
+        <v>35</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
@@ -877,288 +1044,379 @@
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1">
-        <v>3</v>
+      <c r="G9" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1">
-        <v>4</v>
+      <c r="G10" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1">
-        <v>5</v>
+      <c r="G11" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
-        <v>2</v>
-      </c>
-      <c r="B13" s="1">
-        <v>6</v>
+      <c r="G12" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
-        <v>2</v>
-      </c>
-      <c r="B14" s="1">
-        <v>7</v>
+      <c r="G13" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
-        <v>3</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="1">
-        <v>3</v>
-      </c>
-      <c r="B16" s="1">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="1">
-        <v>3</v>
-      </c>
-      <c r="B17" s="1">
-        <v>3</v>
+      <c r="G16" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
-        <v>3</v>
-      </c>
-      <c r="B18" s="1">
-        <v>4</v>
+      <c r="G17" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="1">
-        <v>3</v>
-      </c>
-      <c r="B19" s="1">
-        <v>5</v>
+      <c r="G18" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
-        <v>3</v>
-      </c>
-      <c r="B20" s="1">
-        <v>6</v>
+      <c r="G19" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="1">
-        <v>3</v>
-      </c>
-      <c r="B21" s="1">
-        <v>7</v>
+      <c r="G20" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="1">
-        <v>3</v>
-      </c>
-      <c r="B22" s="1">
-        <v>8</v>
+      <c r="G21" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
       <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="1">
-        <v>3</v>
-      </c>
-      <c r="B23" s="1">
-        <v>9</v>
+      <c r="G22" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="1">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="1">
+        <v>8</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="1">
-        <v>8</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="G25" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/11_iOSApp開発/001_ニートいじり/01_設計書/アイコン作成依頼一覧.xlsx
+++ b/11_iOSApp開発/001_ニートいじり/01_設計書/アイコン作成依頼一覧.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="197">
   <si>
     <t>種類</t>
     <rPh sb="0" eb="2">
@@ -1016,6 +1016,22 @@
     <rPh sb="10" eb="12">
       <t>テガ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セットアイテムなし</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1066,7 +1082,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1076,6 +1092,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1109,7 +1131,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1175,6 +1197,15 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3239,8 +3270,8 @@
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4204,7 +4235,28 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="E44" s="23">
+        <v>1</v>
+      </c>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:H2"/>
   <phoneticPr fontId="1"/>
